--- a/2022/Realme/May/02.05.2022/realme Bank Statement May-20222.xlsx
+++ b/2022/Realme/May/02.05.2022/realme Bank Statement May-20222.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Realme\May\02.05.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Realme\May\02.05.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="May-2022" sheetId="7" r:id="rId1"/>
@@ -1728,7 +1728,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2523,6 +2523,12 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2562,12 +2568,6 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="36" fillId="35" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2681,6 +2681,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="44" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4017,67 +4029,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
-      <c r="Q1" s="276"/>
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="278"/>
+      <c r="O1" s="278"/>
+      <c r="P1" s="278"/>
+      <c r="Q1" s="278"/>
     </row>
     <row r="2" spans="1:24" s="87" customFormat="1" ht="18">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="279" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="277"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="277"/>
-      <c r="O2" s="277"/>
-      <c r="P2" s="277"/>
-      <c r="Q2" s="277"/>
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
+      <c r="K2" s="279"/>
+      <c r="L2" s="279"/>
+      <c r="M2" s="279"/>
+      <c r="N2" s="279"/>
+      <c r="O2" s="279"/>
+      <c r="P2" s="279"/>
+      <c r="Q2" s="279"/>
     </row>
     <row r="3" spans="1:24" s="88" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="280" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="279"/>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="279"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="280"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="281"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="281"/>
+      <c r="F3" s="281"/>
+      <c r="G3" s="281"/>
+      <c r="H3" s="281"/>
+      <c r="I3" s="281"/>
+      <c r="J3" s="281"/>
+      <c r="K3" s="281"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="281"/>
+      <c r="Q3" s="282"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4086,10 +4098,10 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="90" customFormat="1">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="283" t="s">
+      <c r="B4" s="285" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="272" t="s">
@@ -4125,13 +4137,13 @@
       <c r="M4" s="272" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="274" t="s">
+      <c r="N4" s="276" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="287" t="s">
+      <c r="O4" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="285" t="s">
+      <c r="P4" s="287" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="89" t="s">
@@ -4144,8 +4156,8 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:24" s="90" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="282"/>
-      <c r="B5" s="284"/>
+      <c r="A5" s="284"/>
+      <c r="B5" s="286"/>
       <c r="C5" s="273"/>
       <c r="D5" s="273"/>
       <c r="E5" s="273"/>
@@ -4157,9 +4169,9 @@
       <c r="K5" s="273"/>
       <c r="L5" s="273"/>
       <c r="M5" s="273"/>
-      <c r="N5" s="275"/>
-      <c r="O5" s="288"/>
-      <c r="P5" s="286"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="275"/>
+      <c r="P5" s="288"/>
       <c r="Q5" s="94" t="s">
         <v>35</v>
       </c>
@@ -7073,12 +7085,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7092,6 +7098,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7102,8 +7114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI232"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9772,14 +9784,14 @@
       <c r="BI39" s="141"/>
     </row>
     <row r="40" spans="1:61" ht="14.25">
-      <c r="A40" s="218" t="s">
+      <c r="A40" s="327" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="218"/>
-      <c r="C40" s="219">
+      <c r="B40" s="327"/>
+      <c r="C40" s="328">
         <v>78830</v>
       </c>
-      <c r="D40" s="221" t="s">
+      <c r="D40" s="330" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="47"/>
@@ -9841,14 +9853,14 @@
       <c r="BI40" s="141"/>
     </row>
     <row r="41" spans="1:61" ht="14.25">
-      <c r="A41" s="218" t="s">
+      <c r="A41" s="327" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="218"/>
-      <c r="C41" s="219">
+      <c r="B41" s="327"/>
+      <c r="C41" s="328">
         <v>64050</v>
       </c>
-      <c r="D41" s="220" t="s">
+      <c r="D41" s="329" t="s">
         <v>99</v>
       </c>
       <c r="E41" s="65"/>
@@ -9980,16 +9992,16 @@
       <c r="BI42" s="141"/>
     </row>
     <row r="43" spans="1:61" ht="15" thickBot="1">
-      <c r="A43" s="218" t="s">
+      <c r="A43" s="327" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="218" t="s">
+      <c r="B43" s="327" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="219">
+      <c r="C43" s="328">
         <v>100000</v>
       </c>
-      <c r="D43" s="221" t="s">
+      <c r="D43" s="330" t="s">
         <v>73</v>
       </c>
       <c r="E43" s="48"/>
@@ -10609,14 +10621,14 @@
       <c r="BI51" s="217"/>
     </row>
     <row r="52" spans="1:61" ht="14.25">
-      <c r="A52" s="218" t="s">
+      <c r="A52" s="327" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="218"/>
-      <c r="C52" s="219">
+      <c r="B52" s="327"/>
+      <c r="C52" s="328">
         <v>100000</v>
       </c>
-      <c r="D52" s="220" t="s">
+      <c r="D52" s="329" t="s">
         <v>99</v>
       </c>
       <c r="E52" s="47"/>
@@ -16278,7 +16290,7 @@
   </sheetPr>
   <dimension ref="A1:AB221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
